--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16120"/>
+    <workbookView windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
     <sheet name="2020-Q4" sheetId="2" r:id="rId2"/>
+    <sheet name="2021-Q2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022">
   <si>
     <t>代码</t>
   </si>
@@ -2200,6 +2201,888 @@
   </si>
   <si>
     <t>9.10</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>85.06</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>31.09</t>
+  </si>
+  <si>
+    <t>20.98</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>163807</t>
+  </si>
+  <si>
+    <t>中银优选混合</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>78.77</t>
+  </si>
+  <si>
+    <t>39.26</t>
+  </si>
+  <si>
+    <t>29.79</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>83.54</t>
+  </si>
+  <si>
+    <t>43.22</t>
+  </si>
+  <si>
+    <t>30.64</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>89.43</t>
+  </si>
+  <si>
+    <t>40.01</t>
+  </si>
+  <si>
+    <t>30.80</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>88.25</t>
+  </si>
+  <si>
+    <t>47.02</t>
+  </si>
+  <si>
+    <t>27.93</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>18.87</t>
+  </si>
+  <si>
+    <t>87.34</t>
+  </si>
+  <si>
+    <t>001694</t>
+  </si>
+  <si>
+    <t>华安沪港深外延增长灵活配置混合</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>73.39</t>
+  </si>
+  <si>
+    <t>39.56</t>
+  </si>
+  <si>
+    <t>35.02</t>
+  </si>
+  <si>
+    <t>22.53</t>
+  </si>
+  <si>
+    <t>91.29</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>91.12</t>
+  </si>
+  <si>
+    <t>47.67</t>
+  </si>
+  <si>
+    <t>33.35</t>
+  </si>
+  <si>
+    <t>67.20</t>
+  </si>
+  <si>
+    <t>166801</t>
+  </si>
+  <si>
+    <t>浙商聚潮新思维混合</t>
+  </si>
+  <si>
+    <t>陈鹏辉</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>74.95</t>
+  </si>
+  <si>
+    <t>46.02</t>
+  </si>
+  <si>
+    <t>22.33</t>
+  </si>
+  <si>
+    <t>7.79</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>76.80</t>
+  </si>
+  <si>
+    <t>43.48</t>
+  </si>
+  <si>
+    <t>26.80</t>
+  </si>
+  <si>
+    <t>20.07</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>000541</t>
+  </si>
+  <si>
+    <t>华商创新成长灵活配置混合</t>
+  </si>
+  <si>
+    <t>梁皓</t>
+  </si>
+  <si>
+    <t>90.25</t>
+  </si>
+  <si>
+    <t>56.96</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>24.54</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>39.05</t>
+  </si>
+  <si>
+    <t>28.88</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>41.94</t>
+  </si>
+  <si>
+    <t>163409</t>
+  </si>
+  <si>
+    <t>兴全绿色投资混合(LOF)</t>
+  </si>
+  <si>
+    <t>邹欣</t>
+  </si>
+  <si>
+    <t>86.76</t>
+  </si>
+  <si>
+    <t>35.83</t>
+  </si>
+  <si>
+    <t>23.21</t>
+  </si>
+  <si>
+    <t>18.24</t>
+  </si>
+  <si>
+    <t>58.15</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>89.79</t>
+  </si>
+  <si>
+    <t>42.77</t>
+  </si>
+  <si>
+    <t>27.88</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>87.03</t>
+  </si>
+  <si>
+    <t>37.17</t>
+  </si>
+  <si>
+    <t>28.17</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>210003</t>
+  </si>
+  <si>
+    <t>金鹰行业优势混合</t>
+  </si>
+  <si>
+    <t>倪超</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>89.10</t>
+  </si>
+  <si>
+    <t>55.38</t>
+  </si>
+  <si>
+    <t>33.24</t>
+  </si>
+  <si>
+    <t>24.06</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>001975</t>
+  </si>
+  <si>
+    <t>景顺长城环保优势股票</t>
+  </si>
+  <si>
+    <t>杨锐文</t>
+  </si>
+  <si>
+    <t>90.94</t>
+  </si>
+  <si>
+    <t>48.72</t>
+  </si>
+  <si>
+    <t>27.55</t>
+  </si>
+  <si>
+    <t>65.60</t>
+  </si>
+  <si>
+    <t>217013</t>
+  </si>
+  <si>
+    <t>招商中小盘精选混合</t>
+  </si>
+  <si>
+    <t>韩冰</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>88.99</t>
+  </si>
+  <si>
+    <t>57.26</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>22.28</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>89.08</t>
+  </si>
+  <si>
+    <t>47.36</t>
+  </si>
+  <si>
+    <t>30.49</t>
+  </si>
+  <si>
+    <t>23.77</t>
+  </si>
+  <si>
+    <t>42.13</t>
+  </si>
+  <si>
+    <t>89.96</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>30.46</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>22.63</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>93.22</t>
+  </si>
+  <si>
+    <t>43.94</t>
+  </si>
+  <si>
+    <t>28.25</t>
+  </si>
+  <si>
+    <t>22.91</t>
+  </si>
+  <si>
+    <t>44.61</t>
+  </si>
+  <si>
+    <t>88.94</t>
+  </si>
+  <si>
+    <t>41.67</t>
+  </si>
+  <si>
+    <t>24.65</t>
+  </si>
+  <si>
+    <t>183.35</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>74.10</t>
+  </si>
+  <si>
+    <t>44.11</t>
+  </si>
+  <si>
+    <t>23.92</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>23.76</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>84.79</t>
+  </si>
+  <si>
+    <t>35.60</t>
+  </si>
+  <si>
+    <t>23.90</t>
+  </si>
+  <si>
+    <t>20.54</t>
+  </si>
+  <si>
+    <t>001677</t>
+  </si>
+  <si>
+    <t>中银战略新兴产业股票A</t>
+  </si>
+  <si>
+    <t>钱亚风云</t>
+  </si>
+  <si>
+    <t>84.93</t>
+  </si>
+  <si>
+    <t>57.61</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>21.45</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>540003</t>
+  </si>
+  <si>
+    <t>汇丰晋信动态策略混合A</t>
+  </si>
+  <si>
+    <t>陆彬</t>
+  </si>
+  <si>
+    <t>77.12</t>
+  </si>
+  <si>
+    <t>37.45</t>
+  </si>
+  <si>
+    <t>24.21</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>519126</t>
+  </si>
+  <si>
+    <t>浦银安盛新经济结构灵活配置混合</t>
+  </si>
+  <si>
+    <t>蒋佳良</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>91.68</t>
+  </si>
+  <si>
+    <t>42.59</t>
+  </si>
+  <si>
+    <t>29.36</t>
+  </si>
+  <si>
+    <t>24.80</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>001869</t>
+  </si>
+  <si>
+    <t>招商制造业转型灵活配置混合A</t>
+  </si>
+  <si>
+    <t>王景</t>
+  </si>
+  <si>
+    <t>79.11</t>
+  </si>
+  <si>
+    <t>45.96</t>
+  </si>
+  <si>
+    <t>25.65</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>20.45</t>
+  </si>
+  <si>
+    <t>610002</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>冯明远</t>
+  </si>
+  <si>
+    <t>78.93</t>
+  </si>
+  <si>
+    <t>29.27</t>
+  </si>
+  <si>
+    <t>23.45</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>90.38</t>
+  </si>
+  <si>
+    <t>41.31</t>
+  </si>
+  <si>
+    <t>28.09</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>92.69</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>25.89</t>
+  </si>
+  <si>
+    <t>32.75</t>
+  </si>
+  <si>
+    <t>80.46</t>
+  </si>
+  <si>
+    <t>54.10</t>
+  </si>
+  <si>
+    <t>26.24</t>
+  </si>
+  <si>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>13.65</t>
+  </si>
+  <si>
+    <t>92.13</t>
+  </si>
+  <si>
+    <t>56.42</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>261.33</t>
+  </si>
+  <si>
+    <t>86.40</t>
+  </si>
+  <si>
+    <t>39.10</t>
+  </si>
+  <si>
+    <t>25.78</t>
+  </si>
+  <si>
+    <t>26.06</t>
+  </si>
+  <si>
+    <t>400032</t>
+  </si>
+  <si>
+    <t>东方主题精选混合</t>
+  </si>
+  <si>
+    <t>蒋茜</t>
+  </si>
+  <si>
+    <t>90.49</t>
+  </si>
+  <si>
+    <t>44.86</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>25.34</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>001072</t>
+  </si>
+  <si>
+    <t>华安智能装备主题股票</t>
+  </si>
+  <si>
+    <t>李欣</t>
+  </si>
+  <si>
+    <t>88.59</t>
+  </si>
+  <si>
+    <t>40.03</t>
+  </si>
+  <si>
+    <t>27.81</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>94.03</t>
+  </si>
+  <si>
+    <t>52.11</t>
+  </si>
+  <si>
+    <t>23.18</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>92.36</t>
+  </si>
+  <si>
+    <t>20.61</t>
+  </si>
+  <si>
+    <t>20.21</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>93.92</t>
+  </si>
+  <si>
+    <t>46.49</t>
+  </si>
+  <si>
+    <t>19.72</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>196.76</t>
+  </si>
+  <si>
+    <t>070021</t>
+  </si>
+  <si>
+    <t>嘉实主题新动力混合</t>
+  </si>
+  <si>
+    <t>曲盛伟</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>49.33</t>
+  </si>
+  <si>
+    <t>26.22</t>
+  </si>
+  <si>
+    <t>24.87</t>
+  </si>
+  <si>
+    <t>16.22</t>
+  </si>
+  <si>
+    <t>93.71</t>
+  </si>
+  <si>
+    <t>51.24</t>
+  </si>
+  <si>
+    <t>19.52</t>
+  </si>
+  <si>
+    <t>31.96</t>
+  </si>
+  <si>
+    <t>960021</t>
+  </si>
+  <si>
+    <t>富兰克林国海潜力组合混合H 人民币</t>
+  </si>
+  <si>
+    <t>73.69</t>
+  </si>
+  <si>
+    <t>43.38</t>
+  </si>
+  <si>
+    <t>18.44</t>
+  </si>
+  <si>
+    <t>93.81</t>
+  </si>
+  <si>
+    <t>53.48</t>
+  </si>
+  <si>
+    <t>22.16</t>
+  </si>
+  <si>
+    <t>22.64</t>
+  </si>
+  <si>
+    <t>45.10</t>
+  </si>
+  <si>
+    <t>519097</t>
+  </si>
+  <si>
+    <t>新华中小市值优选混合</t>
+  </si>
+  <si>
+    <t>付伟</t>
+  </si>
+  <si>
+    <t>94.79</t>
+  </si>
+  <si>
+    <t>46.16</t>
+  </si>
+  <si>
+    <t>94.22</t>
+  </si>
+  <si>
+    <t>32.92</t>
+  </si>
+  <si>
+    <t>23.96</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>93.78</t>
+  </si>
+  <si>
+    <t>59.69</t>
+  </si>
+  <si>
+    <t>23.17</t>
+  </si>
+  <si>
+    <t>138.89</t>
+  </si>
+  <si>
+    <t>39.45</t>
+  </si>
+  <si>
+    <t>20.14</t>
+  </si>
+  <si>
+    <t>59.98</t>
+  </si>
+  <si>
+    <t>19.59</t>
+  </si>
+  <si>
+    <t>23.56</t>
+  </si>
+  <si>
+    <t>9.64</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>88.52</t>
+  </si>
+  <si>
+    <t>45.60</t>
+  </si>
+  <si>
+    <t>20.77</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>26.84</t>
+  </si>
+  <si>
+    <t>31.74</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>92.60</t>
+  </si>
+  <si>
+    <t>59.27</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>27.27</t>
+  </si>
+  <si>
+    <t>134.33</t>
   </si>
 </sst>
 </file>
@@ -2207,11 +3090,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2242,12 +3125,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2256,17 +3147,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2277,8 +3161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,19 +3177,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2340,23 +3225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2370,16 +3240,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2394,19 +3277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,13 +3301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,25 +3313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2472,7 +3343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,7 +3355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,19 +3391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2520,61 +3451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,24 +3497,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2647,15 +3535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2690,158 +3569,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
@@ -3206,28 +4089,28 @@
   <sheetPr/>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="13.0982142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.2232142857143" customWidth="1"/>
-    <col min="4" max="4" width="13.6964285714286" customWidth="1"/>
-    <col min="5" max="5" width="10.5535714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.3928571428571" customWidth="1"/>
-    <col min="8" max="9" width="11.9107142857143" customWidth="1"/>
-    <col min="10" max="10" width="11.3125" customWidth="1"/>
-    <col min="11" max="11" width="12.0535714285714" customWidth="1"/>
-    <col min="12" max="12" width="13.9821428571429" customWidth="1"/>
-    <col min="13" max="13" width="11.4553571428571" customWidth="1"/>
-    <col min="14" max="14" width="12.3482142857143" customWidth="1"/>
-    <col min="15" max="15" width="13.3928571428571" customWidth="1"/>
-    <col min="16" max="16" width="11.7589285714286" customWidth="1"/>
-    <col min="17" max="18" width="9.66964285714286" customWidth="1"/>
-    <col min="20" max="20" width="12.3482142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.0961538461538" customWidth="1"/>
+    <col min="3" max="3" width="27.2211538461538" customWidth="1"/>
+    <col min="4" max="4" width="13.6923076923077" customWidth="1"/>
+    <col min="5" max="5" width="10.5576923076923" customWidth="1"/>
+    <col min="6" max="6" width="14.2884615384615" customWidth="1"/>
+    <col min="7" max="7" width="13.3942307692308" customWidth="1"/>
+    <col min="8" max="9" width="11.9134615384615" customWidth="1"/>
+    <col min="10" max="10" width="11.3173076923077" customWidth="1"/>
+    <col min="11" max="11" width="12.0576923076923" customWidth="1"/>
+    <col min="12" max="12" width="13.9807692307692" customWidth="1"/>
+    <col min="13" max="13" width="11.4519230769231" customWidth="1"/>
+    <col min="14" max="14" width="12.3461538461538" customWidth="1"/>
+    <col min="15" max="15" width="13.3942307692308" customWidth="1"/>
+    <col min="16" max="16" width="11.7596153846154" customWidth="1"/>
+    <col min="17" max="18" width="9.67307692307692" customWidth="1"/>
+    <col min="20" max="20" width="12.3461538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.6" customHeight="1" spans="2:20">
@@ -6280,13 +7163,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="12.3482142857143" customWidth="1"/>
-    <col min="3" max="3" width="23.8125" customWidth="1"/>
-    <col min="4" max="4" width="10.5535714285714" customWidth="1"/>
-    <col min="6" max="6" width="11.4910714285714" customWidth="1"/>
-    <col min="7" max="7" width="15.0089285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.3461538461538" customWidth="1"/>
+    <col min="3" max="3" width="23.8173076923077" customWidth="1"/>
+    <col min="4" max="4" width="10.5576923076923" customWidth="1"/>
+    <col min="6" max="6" width="11.4903846153846" customWidth="1"/>
+    <col min="7" max="7" width="15.0096153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
@@ -9080,4 +9963,3184 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="6" max="6" width="20.0288461538462" customWidth="1"/>
+    <col min="7" max="7" width="16.3461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42082</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42082</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>728</v>
+      </c>
+      <c r="K2" t="s">
+        <v>729</v>
+      </c>
+      <c r="L2" t="s">
+        <v>730</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>521</v>
+      </c>
+      <c r="R2" t="s">
+        <v>732</v>
+      </c>
+      <c r="S2" t="s">
+        <v>733</v>
+      </c>
+      <c r="T2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42152</v>
+      </c>
+      <c r="G3" s="2">
+        <v>39906</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>728</v>
+      </c>
+      <c r="K3" t="s">
+        <v>738</v>
+      </c>
+      <c r="L3" t="s">
+        <v>739</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>741</v>
+      </c>
+      <c r="R3" t="s">
+        <v>531</v>
+      </c>
+      <c r="S3" t="s">
+        <v>742</v>
+      </c>
+      <c r="T3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>41719</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41719</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>743</v>
+      </c>
+      <c r="K4" t="s">
+        <v>744</v>
+      </c>
+      <c r="L4" t="s">
+        <v>745</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>747</v>
+      </c>
+      <c r="R4" t="s">
+        <v>748</v>
+      </c>
+      <c r="S4" t="s">
+        <v>749</v>
+      </c>
+      <c r="T4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43404</v>
+      </c>
+      <c r="G5" s="2">
+        <v>41417</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>750</v>
+      </c>
+      <c r="K5" t="s">
+        <v>751</v>
+      </c>
+      <c r="L5" t="s">
+        <v>752</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>754</v>
+      </c>
+      <c r="R5" t="s">
+        <v>755</v>
+      </c>
+      <c r="S5" t="s">
+        <v>756</v>
+      </c>
+      <c r="T5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43966</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41408</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>750</v>
+      </c>
+      <c r="K6" t="s">
+        <v>757</v>
+      </c>
+      <c r="L6" t="s">
+        <v>758</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>760</v>
+      </c>
+      <c r="R6" t="s">
+        <v>761</v>
+      </c>
+      <c r="S6" t="s">
+        <v>762</v>
+      </c>
+      <c r="T6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42438</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42438</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>765</v>
+      </c>
+      <c r="K7" t="s">
+        <v>766</v>
+      </c>
+      <c r="L7" t="s">
+        <v>767</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" t="s">
+        <v>769</v>
+      </c>
+      <c r="S7" t="s">
+        <v>770</v>
+      </c>
+      <c r="T7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42705</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42432</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>771</v>
+      </c>
+      <c r="K8" t="s">
+        <v>772</v>
+      </c>
+      <c r="L8" t="s">
+        <v>773</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>754</v>
+      </c>
+      <c r="R8" t="s">
+        <v>658</v>
+      </c>
+      <c r="S8" t="s">
+        <v>775</v>
+      </c>
+      <c r="T8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>778</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43677</v>
+      </c>
+      <c r="G9" s="2">
+        <v>40976</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>779</v>
+      </c>
+      <c r="K9" t="s">
+        <v>780</v>
+      </c>
+      <c r="L9" t="s">
+        <v>781</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>281</v>
+      </c>
+      <c r="R9" t="s">
+        <v>221</v>
+      </c>
+      <c r="S9" t="s">
+        <v>783</v>
+      </c>
+      <c r="T9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43249</v>
+      </c>
+      <c r="G10" s="2">
+        <v>40716</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>784</v>
+      </c>
+      <c r="K10" t="s">
+        <v>785</v>
+      </c>
+      <c r="L10" t="s">
+        <v>786</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10" t="s">
+        <v>788</v>
+      </c>
+      <c r="S10" t="s">
+        <v>789</v>
+      </c>
+      <c r="T10" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>792</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43293</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41716</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>793</v>
+      </c>
+      <c r="L11" t="s">
+        <v>794</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>612</v>
+      </c>
+      <c r="R11" t="s">
+        <v>796</v>
+      </c>
+      <c r="S11" t="s">
+        <v>797</v>
+      </c>
+      <c r="T11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42173</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41137</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>798</v>
+      </c>
+      <c r="L12" t="s">
+        <v>799</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>612</v>
+      </c>
+      <c r="R12" t="s">
+        <v>801</v>
+      </c>
+      <c r="S12" t="s">
+        <v>802</v>
+      </c>
+      <c r="T12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C13" t="s">
+        <v>804</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>805</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42915</v>
+      </c>
+      <c r="G13" s="2">
+        <v>40669</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>806</v>
+      </c>
+      <c r="L13" t="s">
+        <v>807</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>264</v>
+      </c>
+      <c r="R13" t="s">
+        <v>809</v>
+      </c>
+      <c r="S13" t="s">
+        <v>810</v>
+      </c>
+      <c r="T13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42430</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>811</v>
+      </c>
+      <c r="K14" t="s">
+        <v>812</v>
+      </c>
+      <c r="L14" t="s">
+        <v>813</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>264</v>
+      </c>
+      <c r="R14" t="s">
+        <v>755</v>
+      </c>
+      <c r="S14" t="s">
+        <v>719</v>
+      </c>
+      <c r="T14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43123</v>
+      </c>
+      <c r="G15" s="2">
+        <v>42180</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>815</v>
+      </c>
+      <c r="K15" t="s">
+        <v>816</v>
+      </c>
+      <c r="L15" t="s">
+        <v>817</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>747</v>
+      </c>
+      <c r="R15" t="s">
+        <v>732</v>
+      </c>
+      <c r="S15" t="s">
+        <v>819</v>
+      </c>
+      <c r="T15" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>820</v>
+      </c>
+      <c r="C16" t="s">
+        <v>821</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>822</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42166</v>
+      </c>
+      <c r="G16" s="2">
+        <v>39995</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>823</v>
+      </c>
+      <c r="K16" t="s">
+        <v>824</v>
+      </c>
+      <c r="L16" t="s">
+        <v>825</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>760</v>
+      </c>
+      <c r="R16" t="s">
+        <v>827</v>
+      </c>
+      <c r="S16" t="s">
+        <v>828</v>
+      </c>
+      <c r="T16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>829</v>
+      </c>
+      <c r="C17" t="s">
+        <v>830</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>831</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42444</v>
+      </c>
+      <c r="G17" s="2">
+        <v>42444</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>466</v>
+      </c>
+      <c r="K17" t="s">
+        <v>832</v>
+      </c>
+      <c r="L17" t="s">
+        <v>833</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>527</v>
+      </c>
+      <c r="S17" t="s">
+        <v>835</v>
+      </c>
+      <c r="T17" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>836</v>
+      </c>
+      <c r="C18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>838</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42129</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40172</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>839</v>
+      </c>
+      <c r="K18" t="s">
+        <v>840</v>
+      </c>
+      <c r="L18" t="s">
+        <v>841</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>843</v>
+      </c>
+      <c r="R18" t="s">
+        <v>844</v>
+      </c>
+      <c r="S18" t="s">
+        <v>845</v>
+      </c>
+      <c r="T18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43475</v>
+      </c>
+      <c r="G19" s="2">
+        <v>40988</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>846</v>
+      </c>
+      <c r="K19" t="s">
+        <v>847</v>
+      </c>
+      <c r="L19" t="s">
+        <v>848</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>754</v>
+      </c>
+      <c r="R19" t="s">
+        <v>850</v>
+      </c>
+      <c r="S19" t="s">
+        <v>851</v>
+      </c>
+      <c r="T19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" t="s">
+        <v>576</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>577</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43105</v>
+      </c>
+      <c r="G20" s="2">
+        <v>39654</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>846</v>
+      </c>
+      <c r="K20" t="s">
+        <v>852</v>
+      </c>
+      <c r="L20" t="s">
+        <v>853</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>855</v>
+      </c>
+      <c r="R20" t="s">
+        <v>856</v>
+      </c>
+      <c r="S20" t="s">
+        <v>857</v>
+      </c>
+      <c r="T20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42051</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42051</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>846</v>
+      </c>
+      <c r="K21" t="s">
+        <v>858</v>
+      </c>
+      <c r="L21" t="s">
+        <v>859</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>158</v>
+      </c>
+      <c r="R21" t="s">
+        <v>861</v>
+      </c>
+      <c r="S21" t="s">
+        <v>862</v>
+      </c>
+      <c r="T21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42368</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42368</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>846</v>
+      </c>
+      <c r="K22" t="s">
+        <v>863</v>
+      </c>
+      <c r="L22" t="s">
+        <v>864</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>521</v>
+      </c>
+      <c r="R22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" t="s">
+        <v>866</v>
+      </c>
+      <c r="T22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43098</v>
+      </c>
+      <c r="G23" s="2">
+        <v>41080</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>867</v>
+      </c>
+      <c r="K23" t="s">
+        <v>868</v>
+      </c>
+      <c r="L23" t="s">
+        <v>869</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>612</v>
+      </c>
+      <c r="R23" t="s">
+        <v>871</v>
+      </c>
+      <c r="S23" t="s">
+        <v>872</v>
+      </c>
+      <c r="T23" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42089</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42089</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>873</v>
+      </c>
+      <c r="K24" t="s">
+        <v>874</v>
+      </c>
+      <c r="L24" t="s">
+        <v>875</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>521</v>
+      </c>
+      <c r="R24" t="s">
+        <v>527</v>
+      </c>
+      <c r="S24" t="s">
+        <v>877</v>
+      </c>
+      <c r="T24" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>878</v>
+      </c>
+      <c r="C25" t="s">
+        <v>879</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>880</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42334</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42334</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
+        <v>881</v>
+      </c>
+      <c r="L25" t="s">
+        <v>882</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>220</v>
+      </c>
+      <c r="R25" t="s">
+        <v>884</v>
+      </c>
+      <c r="S25" t="s">
+        <v>885</v>
+      </c>
+      <c r="T25" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>886</v>
+      </c>
+      <c r="C26" t="s">
+        <v>887</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>888</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43960</v>
+      </c>
+      <c r="G26" s="2">
+        <v>39181</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s">
+        <v>889</v>
+      </c>
+      <c r="L26" t="s">
+        <v>890</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>564</v>
+      </c>
+      <c r="R26" t="s">
+        <v>892</v>
+      </c>
+      <c r="S26" t="s">
+        <v>355</v>
+      </c>
+      <c r="T26" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>893</v>
+      </c>
+      <c r="C27" t="s">
+        <v>894</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>895</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43405</v>
+      </c>
+      <c r="G27" s="2">
+        <v>41779</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>896</v>
+      </c>
+      <c r="K27" t="s">
+        <v>897</v>
+      </c>
+      <c r="L27" t="s">
+        <v>898</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>900</v>
+      </c>
+      <c r="S27" t="s">
+        <v>901</v>
+      </c>
+      <c r="T27" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>902</v>
+      </c>
+      <c r="C28" t="s">
+        <v>903</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>904</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42340</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42340</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" t="s">
+        <v>905</v>
+      </c>
+      <c r="L28" t="s">
+        <v>906</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>908</v>
+      </c>
+      <c r="R28" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" t="s">
+        <v>909</v>
+      </c>
+      <c r="T28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>910</v>
+      </c>
+      <c r="C29" t="s">
+        <v>911</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>912</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43095</v>
+      </c>
+      <c r="G29" s="2">
+        <v>39659</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" t="s">
+        <v>913</v>
+      </c>
+      <c r="L29" t="s">
+        <v>463</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>591</v>
+      </c>
+      <c r="R29" t="s">
+        <v>915</v>
+      </c>
+      <c r="S29" t="s">
+        <v>916</v>
+      </c>
+      <c r="T29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42087</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42087</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>917</v>
+      </c>
+      <c r="L30" t="s">
+        <v>918</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>920</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" t="s">
+        <v>921</v>
+      </c>
+      <c r="T30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42468</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>922</v>
+      </c>
+      <c r="L31" t="s">
+        <v>923</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>443</v>
+      </c>
+      <c r="R31" t="s">
+        <v>509</v>
+      </c>
+      <c r="S31" t="s">
+        <v>925</v>
+      </c>
+      <c r="T31" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43693</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42298</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" t="s">
+        <v>926</v>
+      </c>
+      <c r="L32" t="s">
+        <v>927</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>929</v>
+      </c>
+      <c r="S32" t="s">
+        <v>930</v>
+      </c>
+      <c r="T32" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="2">
+        <v>42311</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42311</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s">
+        <v>931</v>
+      </c>
+      <c r="L33" t="s">
+        <v>932</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" t="s">
+        <v>555</v>
+      </c>
+      <c r="S33" t="s">
+        <v>934</v>
+      </c>
+      <c r="T33" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41333</v>
+      </c>
+      <c r="G34" s="2">
+        <v>38974</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>935</v>
+      </c>
+      <c r="L34" t="s">
+        <v>936</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>68</v>
+      </c>
+      <c r="R34" t="s">
+        <v>348</v>
+      </c>
+      <c r="S34" t="s">
+        <v>938</v>
+      </c>
+      <c r="T34" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>939</v>
+      </c>
+      <c r="C35" t="s">
+        <v>940</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>941</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G35" s="2">
+        <v>42086</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" t="s">
+        <v>942</v>
+      </c>
+      <c r="L35" t="s">
+        <v>943</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>754</v>
+      </c>
+      <c r="R35" t="s">
+        <v>945</v>
+      </c>
+      <c r="S35" t="s">
+        <v>946</v>
+      </c>
+      <c r="T35" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>947</v>
+      </c>
+      <c r="C36" t="s">
+        <v>948</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>949</v>
+      </c>
+      <c r="F36" s="2">
+        <v>42194</v>
+      </c>
+      <c r="G36" s="2">
+        <v>42118</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" t="s">
+        <v>950</v>
+      </c>
+      <c r="L36" t="s">
+        <v>951</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" t="s">
+        <v>953</v>
+      </c>
+      <c r="S36" t="s">
+        <v>954</v>
+      </c>
+      <c r="T36" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43341</v>
+      </c>
+      <c r="G37" s="2">
+        <v>39728</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" t="s">
+        <v>955</v>
+      </c>
+      <c r="L37" t="s">
+        <v>956</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>275</v>
+      </c>
+      <c r="R37" t="s">
+        <v>957</v>
+      </c>
+      <c r="S37" t="s">
+        <v>958</v>
+      </c>
+      <c r="T37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="2">
+        <v>41051</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41051</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s">
+        <v>959</v>
+      </c>
+      <c r="L38" t="s">
+        <v>393</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>141</v>
+      </c>
+      <c r="R38" t="s">
+        <v>961</v>
+      </c>
+      <c r="S38" t="s">
+        <v>962</v>
+      </c>
+      <c r="T38" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43291</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41261</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s">
+        <v>963</v>
+      </c>
+      <c r="L39" t="s">
+        <v>964</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>754</v>
+      </c>
+      <c r="R39" t="s">
+        <v>966</v>
+      </c>
+      <c r="S39" t="s">
+        <v>967</v>
+      </c>
+      <c r="T39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>968</v>
+      </c>
+      <c r="C40" t="s">
+        <v>969</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>970</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43081</v>
+      </c>
+      <c r="G40" s="2">
+        <v>40519</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" t="s">
+        <v>971</v>
+      </c>
+      <c r="L40" t="s">
+        <v>972</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>973</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>357</v>
+      </c>
+      <c r="R40" t="s">
+        <v>974</v>
+      </c>
+      <c r="S40" t="s">
+        <v>975</v>
+      </c>
+      <c r="T40" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="2">
+        <v>41691</v>
+      </c>
+      <c r="G41" s="2">
+        <v>39163</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" t="s">
+        <v>976</v>
+      </c>
+      <c r="L41" t="s">
+        <v>977</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>521</v>
+      </c>
+      <c r="R41" t="s">
+        <v>961</v>
+      </c>
+      <c r="S41" t="s">
+        <v>979</v>
+      </c>
+      <c r="T41" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>980</v>
+      </c>
+      <c r="C42" t="s">
+        <v>981</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="2">
+        <v>41691</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42467</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" t="s">
+        <v>976</v>
+      </c>
+      <c r="L42" t="s">
+        <v>977</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>521</v>
+      </c>
+      <c r="R42" t="s">
+        <v>619</v>
+      </c>
+      <c r="S42" t="s">
+        <v>979</v>
+      </c>
+      <c r="T42" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43438</v>
+      </c>
+      <c r="G43" s="2">
+        <v>37811</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>505</v>
+      </c>
+      <c r="K43" t="s">
+        <v>982</v>
+      </c>
+      <c r="L43" t="s">
+        <v>983</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>400</v>
+      </c>
+      <c r="R43" t="s">
+        <v>195</v>
+      </c>
+      <c r="S43" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>316</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43767</v>
+      </c>
+      <c r="G44" s="2">
+        <v>42318</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>511</v>
+      </c>
+      <c r="K44" t="s">
+        <v>985</v>
+      </c>
+      <c r="L44" t="s">
+        <v>986</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>987</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>311</v>
+      </c>
+      <c r="R44" t="s">
+        <v>988</v>
+      </c>
+      <c r="S44" t="s">
+        <v>989</v>
+      </c>
+      <c r="T44" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>990</v>
+      </c>
+      <c r="C45" t="s">
+        <v>991</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>992</v>
+      </c>
+      <c r="F45" s="2">
+        <v>42538</v>
+      </c>
+      <c r="G45" s="2">
+        <v>40571</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>261</v>
+      </c>
+      <c r="K45" t="s">
+        <v>993</v>
+      </c>
+      <c r="L45" t="s">
+        <v>994</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>78</v>
+      </c>
+      <c r="R45" t="s">
+        <v>891</v>
+      </c>
+      <c r="S45" t="s">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>370</v>
+      </c>
+      <c r="F46" s="2">
+        <v>42093</v>
+      </c>
+      <c r="G46" s="2">
+        <v>42093</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>261</v>
+      </c>
+      <c r="K46" t="s">
+        <v>995</v>
+      </c>
+      <c r="L46" t="s">
+        <v>996</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>329</v>
+      </c>
+      <c r="R46" t="s">
+        <v>997</v>
+      </c>
+      <c r="S46" t="s">
+        <v>998</v>
+      </c>
+      <c r="T46" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43438</v>
+      </c>
+      <c r="G47" s="2">
+        <v>41899</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>271</v>
+      </c>
+      <c r="K47" t="s">
+        <v>999</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>564</v>
+      </c>
+      <c r="R47" t="s">
+        <v>891</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="T47" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="2">
+        <v>41810</v>
+      </c>
+      <c r="G48" s="2">
+        <v>41810</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>676</v>
+      </c>
+      <c r="R48" t="s">
+        <v>543</v>
+      </c>
+      <c r="S48" t="s">
+        <v>871</v>
+      </c>
+      <c r="T48" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>344</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43368</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41759</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>311</v>
+      </c>
+      <c r="R49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="T49" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43157</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41606</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R50" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1015</v>
+      </c>
+      <c r="T50" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43669</v>
+      </c>
+      <c r="G51" s="2">
+        <v>38153</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1009</v>
+      </c>
+      <c r="R51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -13154,4 +13155,4416 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>投资风格</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>基金经理</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>现任经理管理起始时间</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>成立时间</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>三年晨星评级</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>五年晨星评级</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>夏普比率</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>股票仓位</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>十大持股仓位</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>两年风险评级</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>三年风险评级</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>五年风险评级</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>阿尔法系数</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>贝塔系数</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
+          <t>标准差</t>
+        </is>
+      </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>数据更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>43404</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>41417</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>王伟</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>42152</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>39906</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>鄢耀</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>42082</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>42082</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>崔莹</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>42438</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>42438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>崔莹</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>42173</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>41137</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>42430</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>42430</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>35.56</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>高钥群</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>43777</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>41771</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>27.27</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>43960</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>39181</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>蒋佳良</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>43405</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>41779</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>刘鹏</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>43249</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>40716</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>周雪军</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>42164</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>38058</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>陈鹏辉</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>43677</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>40976</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>32.44</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>刘晓</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>42784</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>39632</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>邵卓</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>42146</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>41541</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>倪超</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>42166</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>39995</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>王筱苓</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>43123</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>42180</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>黄珺</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>43537</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>41115</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>38.77</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>王君正</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>42089</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>42089</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>43868</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>41844</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>40735</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>39526</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>陈思郁</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>42220</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>39589</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>孙芳</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>41241</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>41241</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>邵卓</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>42087</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>42087</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>43.74</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>韩冰</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>42129</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>40172</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>王景</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>42340</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>42340</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>周寒颖</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>43972</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>41621</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>43.13</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>陈思郁</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>42664</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>42061</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>28.35</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>栾超</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>43105</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>39654</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>孟昊</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>43421</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>41631</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>李巍</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>40806</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>40806</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>40.41</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>杨金金</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>43957</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>40534</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>林晶</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>43117</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>42620</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>42.45</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>42816</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>38687</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>28.11</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>蒋茜</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>43467</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>周智硕</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>44092</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>41871</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>方钰涵</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>43693</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>42298</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>58.12</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>冯明远</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>43095</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>39659</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>詹佳</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>44128</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>40954</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>赵剑</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>43971</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>41898</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>51.85</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>370027</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根智选30混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>李德辉</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>43553</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>41339</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>谭小兵</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>42403</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>41698</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>杜猛</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>43553</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>38245</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>孙芳</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>41992</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>40206</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>李晓西</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>43879</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>39645</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>张剑峰</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>42632</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>42122</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>廖明兵</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>44025</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>39633</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>杨栋</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>42356</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>42356</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>43.44</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>苏圻涵</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>40440</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>40440</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -17496,7 +17497,6 @@
           <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>苏圻涵</t>
@@ -17561,6 +17561,5278 @@
       <c r="T51" t="inlineStr">
         <is>
           <t>2021-Q3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>投资风格</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>基金经理</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>现任经理管理起始时间</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>成立时间</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>三年晨星评级</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>五年晨星评级</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>夏普比率</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>股票仓位</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>十大持股仓位</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>两年风险评级</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>三年风险评级</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>五年风险评级</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>阿尔法系数</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>贝塔系数</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
+          <t>标准差</t>
+        </is>
+      </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>数据更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>43404</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>41417</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>陈保国</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>43876</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>42607</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>35.66</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>吴昊</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>43293</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>王伟</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>42152</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>39906</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>杨晓斌</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>43538</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>42171</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>肖肖</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>42742</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>42241</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>崔莹</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>42438</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>42438</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>38.63</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>林森</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>42761</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>42719</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>42430</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>42430</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>陈鹏</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>43656</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>42499</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>51.19</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>梁皓</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>43039</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>42549</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>42.83</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>李巍</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>42398</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>42398</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>蒋佳良</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>43405</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>41779</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>42.90</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>31.23</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>陈鹏辉</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>43677</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>40976</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>韩创</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>43832</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>42150</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>崔莹</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>42173</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>41137</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>何肖颉</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>42367</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>42353</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>神玉飞</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>42355</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>42355</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>45.04</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>张亮</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>43404</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>杨金金</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>43957</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>40534</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>37.06</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>秦毅</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>43461</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>42705</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>49.73</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>蒋茜</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>43467</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>31.62</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>梁皓</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>43293</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>41716</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>32.07</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>魏刚</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>43861</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>41507</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>费逸</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>43314</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>42690</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>58.76</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>陈少平</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>43553</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>42212</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>陈富权</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>41744</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>39911</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>陈皓</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>42047</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>42047</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>39.32</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>59.19</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>国晓雯</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>42913</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>42319</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>陈启明</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>43490</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>53.60</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>周智硕</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>44092</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>41871</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>陈星</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>44023</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>42459</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>40.45</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>李巍</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>40806</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>40806</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>曲泉儒</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>43574</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>40973</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>18.87</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>42816</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>38687</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>倪超</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>42166</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>39995</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>34.70</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>李彦</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>43994</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>41789</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>廖瀚博</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>43167</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>42102</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>35.88</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001126</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根卓越制造股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>李德辉</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>43266</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>42108</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>费逸</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>42935</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>39980</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>58.99</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>鄢耀</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>42111</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>42111</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>李德辉</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>42692</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>42194</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>田彧龙</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>43599</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>42598</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>40.27</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>沈楠</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>蔡宇滨</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>43487</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>42136</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>43430</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>42356</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>38.09</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>42895</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>45.48</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>王春</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v>43157</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>42626</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>厉叶淼</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>43936</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>42437</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>38.55</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>韩冬燕</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>42313</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>42237</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>蔡晓</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>43166</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>42151</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>赵蓓</t>
+        </is>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>42122</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>42122</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>51.71</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>李林益</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>44119</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>42494</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>曾鹏</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>43272</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>39596</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>胡攸乔</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="n">
+        <v>44168</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>47.15</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>付娟</t>
+        </is>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>44095</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>39057</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>翁启森</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>40440</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>40440</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
     </row>

--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -22768,7 +22769,6 @@
           <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>翁启森</t>
@@ -22833,6 +22833,4930 @@
       <c r="T61" t="inlineStr">
         <is>
           <t>2021-Q4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>投资风格</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>基金经理</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>现任经理管理起始时间</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>成立时间</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>三年晨星评级</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>五年晨星评级</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>夏普比率</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>股票仓位</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>十大持股仓位</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>两年风险评级</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>三年风险评级</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>五年风险评级</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>阿尔法系数</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>贝塔系数</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
+          <t>标准差</t>
+        </is>
+      </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>数据更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>綦缚鹏</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>42577</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>42587</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>43404</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>41417</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>林乐峰</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>43084</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>42599</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>陈保国</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>43876</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>42607</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>周雪军</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>42164</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>38058</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>张竞</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>43098</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>41080</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>鄢耀</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>42082</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>42082</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>43.27</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>刘晓</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>42784</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>39632</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>王伟</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>42152</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>39906</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>42138</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>42138</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>32.49</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>张亮</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>43404</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>王东杰</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>42975</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>39777</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>李彦</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>43994</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>41789</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>41719</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>桑俊</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>43106</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>39457</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>29.27</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>林森</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>42761</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>42719</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>45.28</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>王睿</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>43726</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>40415</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>43430</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>42356</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>杨宗昌</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>43578</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>42760</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>蒋佳良</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>43405</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>41779</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>42.42</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>陈星</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>44023</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>42459</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>吴昊</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>43293</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>吉莉</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>43106</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>41544</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>杨晓斌</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>43538</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>42171</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>黄珺</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>43537</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>41115</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>42587</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>41619</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>梁皓</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>43039</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>42549</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>王春</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>43157</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>42626</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>魏刚</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>43861</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>41507</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>蒋茜</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>43467</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>36.64</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>周智硕</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>44092</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>41892</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>陈启明</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>43490</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>薛琳</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>42678</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>42157</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>38.93</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>韩冰</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>42129</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>40172</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>沈楠</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>周诗博</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>44200</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>41019</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>孟昊</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>43421</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>41631</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>秦毅</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>43461</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>42705</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>陶灿</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>42816</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>38687</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>倪超</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>42166</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>39995</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>王筱苓</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>42222</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>42222</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>廖瀚博</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>43167</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>42102</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>陈金伟</t>
+        </is>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>44202</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>42241</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>费逸</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>43314</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>42690</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>单文</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>42941</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>41589</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>35.10</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>孙晟</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>44029</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>42150</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>蔡宇滨</t>
+        </is>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>43487</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>42136</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>梁皓</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>43293</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>41716</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>48.43</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>赵蓓</t>
+        </is>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v>42122</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>42122</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>49.58</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>43987</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>40885</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>56.19</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>蔡晓</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>43166</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>42151</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>谭小兵</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>42403</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>41698</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>胡攸乔</t>
+        </is>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>44168</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>42149</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>41.65</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>赵蓓</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>41961</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>41961</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>52.51</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>27.34</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
     </row>

--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -23872,8 +23873,6 @@
       <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
           <t>23.84</t>
@@ -27757,6 +27756,3734 @@
       <c r="T57" t="inlineStr">
         <is>
           <t>2022-Q1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>投资风格</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>基金经理</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>现任经理管理起始时间</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>成立时间</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>三年晨星评级</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>五年晨星评级</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>夏普比率</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>股票仓位</t>
+        </is>
+      </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>十大持股仓位</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>两年风险评级</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>三年风险评级</t>
+        </is>
+      </c>
+      <c r="O1" s="6" t="inlineStr">
+        <is>
+          <t>五年风险评级</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>阿尔法系数</t>
+        </is>
+      </c>
+      <c r="Q1" s="6" t="inlineStr">
+        <is>
+          <t>贝塔系数</t>
+        </is>
+      </c>
+      <c r="R1" s="6" t="inlineStr">
+        <is>
+          <t>标准差</t>
+        </is>
+      </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>总资产</t>
+        </is>
+      </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>数据更新时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>綦缚鹏</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>42577</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>42587</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>韩创</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>43832</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>42150</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>綦缚鹏</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>44022</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>42896</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>36.03</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大盘平衡</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>莫海波</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>42222</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>42437</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>周雪军</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>42164</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>38058</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>李彦</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>43994</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>41789</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>42.68</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>何肖颉</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>42367</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>42353</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>27.96</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>沈楠</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>42165</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>19.27</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>黄珺</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>43537</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>41115</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>刘晓</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>42784</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>39632</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>廖瀚博</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>43167</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>42102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>39.01</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>蔡宇滨</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>43487</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>42136</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>42587</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>41619</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>陈皓</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>42047</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>42047</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>吴昊</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>43293</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>35.63</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>桑俊</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>43106</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>39457</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>吉莉</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>43106</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>41544</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>王远鸿</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>44434</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>41723</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>陈星</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>44023</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>42459</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>邢军亮</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>44392</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>41227</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>杨晓斌</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>43538</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>42171</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>蔡晓</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>43166</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>42151</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>魏刚</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>43861</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>41507</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>单文</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>42941</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>41589</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>杨鑫鑫</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>43524</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>41984</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>38.94</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>王景</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>42340</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>42340</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>栾超</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>43237</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>40007</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>白冰洋</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>44214</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>42620</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>59.66</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>栾超</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>43105</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>39654</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>43987</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>40885</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>范庭芳</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>43704</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>40282</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>30.33</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>陈保国</t>
+        </is>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>43876</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>42607</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>蒋佳良</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>43405</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>41779</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>42895</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>39.12</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>陈启明</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>43490</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>刘斌</t>
+        </is>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>42345</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>42345</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>薛琳</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>42678</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>42157</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>张媛</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>43123</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>42704</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>秦毅</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>43461</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>42705</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>蒋茜</t>
+        </is>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>43467</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>费逸</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>43314</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>42690</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>59.74</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
     </row>

--- a/数据整理/funds/high-score-funds.xlsx
+++ b/数据整理/funds/high-score-funds.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="32700" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="32700" windowHeight="16860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,23 +40,31 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,20 +81,88 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,84 +177,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +202,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,31 +250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +274,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,19 +304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,31 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,31 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -485,30 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -517,157 +517,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1094,733 +1097,749 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>代码</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>投资风格</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>基金经理</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>现任经理管理起始时间</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>成立时间</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>三年晨星评级</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>五年晨星评级</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>夏普比率</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>股票仓位</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>十大持股仓位</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>两年风险评级</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>三年风险评级</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>五年风险评级</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>阿尔法系数</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>贝塔系数</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>标准差</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>总资产</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>数据更新时间</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161222</t>
+          <t>000165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+          <t>国投瑞银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>吉莉</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2018-01-06</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>41544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>费逸</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2018-08-02</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>42690</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>59.74</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>魏刚</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2020-01-31</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>41507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>单文</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2017-07-25</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>41589</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>24.68</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>大盘价值</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>綦缚鹏</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>42577</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>42587</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>75.01</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>31.44</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>沈楠</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2015-06-10</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>42165</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>11.10</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>中盘平衡</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>韩创</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>43832</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>42150</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>57.50</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>31.49</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>25.33</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>69.41</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>李彦</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>41789</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>42.68</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>大盘价值</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>綦缚鹏</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>44022</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>42896</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>36.03</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>21.30</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>16.96</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>周海栋</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2016-08-05</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>41619</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519195</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>大盘平衡</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>莫海波</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>42222</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>42437</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>59.38</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>30.57</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>22.92</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>26.60</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>大盘成长</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>周雪军</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>42164</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>38058</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>79.02</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>20.95</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>18.14</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>32.75</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>李彦</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>43994</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>41789</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>86.09</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>42.68</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>32.85</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>64.05</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001716</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>何肖颉</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>42367</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>42353</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>36.25</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>27.96</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>24.32</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519756</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>沈楠</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>42165</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>42165</v>
+          <t>王远鸿</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-08-26</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>41723</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
@@ -1830,820 +1849,840 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>邢军亮</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>41227</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>陈保国</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2020-02-15</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>42607</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>王磊</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2017-06-09</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>41773</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>39.12</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>杨鑫鑫</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2019-02-28</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>41984</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>38.94</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>蒋茜</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2019-01-02</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>42086</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>张媛,
+汤戈</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2018-01-23,
+2021-08-06</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>42704</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>廖瀚博</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2018-03-08</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>42102</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>39.01</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>肖觅</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2016-12-29</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>32.78</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>17.06</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>19.27</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>大盘价值</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>肖觅</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>42733</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>42733</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>52.20</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>19.27</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>10.64</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>163822</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>黄珺</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>43537</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>41115</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>36.85</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>25.13</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>22.30</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>450004</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国富深化价值混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>刘晓</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>42784</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>39632</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>25.73</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>21.20</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>19.79</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>97.10</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>廖瀚博</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>43167</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>42102</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>39.01</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>29.83</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>蔡宇滨</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>43487</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>42136</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>28.95</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>18.58</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>15.83</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>周海栋</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>42587</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>41619</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>35.67</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>24.24</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>21.25</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>19.34</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001018</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>陈皓</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>42047</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>42047</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>83.83</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>40.85</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001457</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商新常态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>吴昊</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>43293</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>42184</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>35.63</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>21.13</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>桑俊</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>43106</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>39457</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>40885</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>89.37</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>50.16</t>
+          <t>55.90</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>17.91</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2653,17 +2692,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000165</t>
+          <t>001018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国投瑞银策略精选混合</t>
+          <t>易方达新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2673,14 +2712,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>吉莉</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>43106</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>41544</v>
+          <t>陈皓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2015-02-12</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>42047</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -2695,12 +2736,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>74.66</t>
+          <t>83.83</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>33.76</t>
+          <t>40.85</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -2714,22 +2755,22 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>23.71</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>72.45</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2739,17 +2780,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2759,14 +2800,16 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>王远鸿</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>44434</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>41723</v>
+          <t>桑俊</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2018-01-06</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>39457</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
@@ -2776,46 +2819,46 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>89.37</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>51.05</t>
+          <t>50.16</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>25.35</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2825,206 +2868,212 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001864</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中海魅力长三角灵活配置混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>蔡宇滨</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2019-01-22</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>42136</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>大盘成长</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>陈星</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>44023</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>42459</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>72.66</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>37.37</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>20.55</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>蔡晓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2018-03-07</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>42151</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>660015</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>邢军亮</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>44392</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>41227</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>36.39</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>25.57</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>25.77</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001266</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰产业整合灵活配置混合</t>
+          <t>国投瑞银招财灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大盘成长</t>
+          <t>大盘价值</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>杨晓斌</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>43538</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>42171</v>
+          <t>綦缚鹏</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>42896</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -3034,1115 +3083,1147 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>36.03</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>中盘平衡</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>韩创</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2020-01-02</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>42150</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>薛琳,
+杨子江,
+刘佃贵</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2016-11-04,
+2019-07-22,
+2021-06-30</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>42157</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>杨晓斌</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2019-03-14</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>42171</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>32.70</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>21.41</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>22.57</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>4.17</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001220</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>民生加银研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>大盘成长</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>蔡晓</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>43166</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>42151</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>吴昊</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2018-07-12</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>42184</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>35.63</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>中盘成长</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>刘斌,
+龙昌伦</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2015-12-07,
+2017-06-22</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>42345</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大盘价值</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>綦缚鹏</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2016-07-26</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>42587</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>53.52</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>22.67</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>24.29</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000259</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>农银区间收益混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>大盘成长</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>魏刚</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="n">
-        <v>43861</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>41507</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>67.87</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>16.74</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>何肖颉</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2015-12-29</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>42353</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>27.96</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000263</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>大盘成长</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>单文</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="n">
-        <v>42941</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>41589</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>80.05</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>32.61</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>陈星</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>42459</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>黄珺</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2019-03-13</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>41115</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="O26" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>王景</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2015-12-02</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>42340</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>27.43</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>秦毅</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2018-12-27</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>42705</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>刘晓</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2017-02-18</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>39632</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>24.68</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>24.82</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>杨鑫鑫</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>43524</v>
-      </c>
-      <c r="G27" s="4" t="n">
-        <v>41984</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>38.94</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>17.71</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001869</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>王景</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>42340</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>42340</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>49.78</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>22.14</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>23.18</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519091</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华泛资源优势混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>栾超</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="n">
-        <v>43237</v>
-      </c>
-      <c r="G29" s="4" t="n">
-        <v>40007</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>78.99</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>24.25</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>002938</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>中盘成长</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>白冰洋</t>
         </is>
       </c>
-      <c r="F30" s="4" t="n">
-        <v>44214</v>
-      </c>
-      <c r="G30" s="4" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>42620</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>59.66</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>5</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>28.73</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>25.67</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519089</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新华优选成长混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>栾超</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="n">
-        <v>43105</v>
-      </c>
-      <c r="G31" s="4" t="n">
-        <v>39654</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>40.08</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>3</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>24.31</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>25.86</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>10.90</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>大盘价值</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>肖觅</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="n">
-        <v>43987</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>40885</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>18.20</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>17.91</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519026</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>海富通中小盘混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>范庭芳</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="n">
-        <v>43704</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>40282</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>56.15</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>27.33</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>30.33</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>陈保国</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>43876</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>42607</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>519126</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>浦银安盛新经济结构灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>蒋佳良</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="n">
-        <v>43405</v>
-      </c>
-      <c r="G35" s="4" t="n">
-        <v>41779</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>44.74</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>26.40</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>32.27</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000587</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>大成灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>王磊</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>42895</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>41773</v>
       </c>
       <c r="H36" t="n">
         <v>5</v>
@@ -4152,648 +4233,662 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>59.66</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>周雪军</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2015-06-09</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>38058</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>陈启明</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2019-01-25</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>42733</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>范庭芳</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>40282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>30.33</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>栾超</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>39654</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>栾超</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2018-05-17</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>40007</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大盘成长</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>蒋佳良</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2018-11-01</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>41779</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>1.10</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>39.12</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>17.95</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>22.83</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>2022-Q2</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>陈启明</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>43490</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <v>42733</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>57.12</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>19.63</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>23.51</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>中盘成长</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>刘斌</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>42345</v>
-      </c>
-      <c r="G38" s="4" t="n">
-        <v>42345</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>86.97</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2</v>
-      </c>
-      <c r="O38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>18.52</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国联安添鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>薛琳</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>42678</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v>42157</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>46.21</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>17.58</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>中盘平衡</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>张媛</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>43123</v>
-      </c>
-      <c r="G40" s="4" t="n">
-        <v>42704</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>59.93</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>24.86</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002846</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泓德泓华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>大盘成长</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>秦毅</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="n">
-        <v>43461</v>
-      </c>
-      <c r="G41" s="4" t="n">
-        <v>42705</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>47.83</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>18.39</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>24.24</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>中盘成长</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>蒋茜</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="n">
-        <v>43467</v>
-      </c>
-      <c r="G42" s="4" t="n">
-        <v>42086</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>46.17</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>24.18</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19.59</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="4" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002133</t>
+          <t>519195</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>广发鑫益灵活配置混合</t>
+          <t>万家品质生活灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大盘成长</t>
+          <t>大盘平衡</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>费逸</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="n">
-        <v>43314</v>
-      </c>
-      <c r="G43" s="4" t="n">
-        <v>42690</v>
+          <t>莫海波</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2015-08-06</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>42437</v>
       </c>
       <c r="H43" t="n">
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>86.76</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>59.74</t>
+          <t>59.38</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
         <v>2</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>30.57</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>26.60</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4815,7 +4910,7 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -4947,10 +5042,10 @@
           <t>綦缚鹏</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>42577</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>42587</v>
       </c>
       <c r="H2" t="n">
@@ -5033,10 +5128,10 @@
           <t>王斌</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>43404</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>41417</v>
       </c>
       <c r="H3" t="n">
@@ -5119,10 +5214,10 @@
           <t>林乐峰</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>43084</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>42599</v>
       </c>
       <c r="H4" t="n">
@@ -5205,10 +5300,10 @@
           <t>陈保国</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>43876</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>42607</v>
       </c>
       <c r="H5" t="n">
@@ -5291,10 +5386,10 @@
           <t>周雪军</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>42164</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>38058</v>
       </c>
       <c r="H6" t="n">
@@ -5377,10 +5472,10 @@
           <t>张竞</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>43098</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>41080</v>
       </c>
       <c r="H7" t="n">
@@ -5463,10 +5558,10 @@
           <t>鄢耀</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>42082</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>42082</v>
       </c>
       <c r="H8" t="n">
@@ -5549,10 +5644,10 @@
           <t>刘晓</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>42784</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>39632</v>
       </c>
       <c r="H9" t="n">
@@ -5635,10 +5730,10 @@
           <t>王伟</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>42152</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="6" t="n">
         <v>39906</v>
       </c>
       <c r="H10" t="n">
@@ -5721,10 +5816,10 @@
           <t>肖觅</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>42733</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>42733</v>
       </c>
       <c r="H11" t="n">
@@ -5807,10 +5902,10 @@
           <t>周海栋</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>42138</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>42138</v>
       </c>
       <c r="H12" t="n">
@@ -5883,10 +5978,10 @@
           <t>张亮</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>43404</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="6" t="n">
         <v>42184</v>
       </c>
       <c r="H13" t="n">
@@ -5969,10 +6064,10 @@
           <t>王东杰</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>42975</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>39777</v>
       </c>
       <c r="H14" t="n">
@@ -6055,10 +6150,10 @@
           <t>李彦</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>43994</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="6" t="n">
         <v>41789</v>
       </c>
       <c r="H15" t="n">
@@ -6141,10 +6236,10 @@
           <t>姜锋</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>41719</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="6" t="n">
         <v>41719</v>
       </c>
       <c r="H16" t="n">
@@ -6227,10 +6322,10 @@
           <t>桑俊</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>43106</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="6" t="n">
         <v>39457</v>
       </c>
       <c r="H17" t="n">
@@ -6313,10 +6408,10 @@
           <t>陶灿</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>41773</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>41773</v>
       </c>
       <c r="H18" t="n">
@@ -6399,10 +6494,10 @@
           <t>林森</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>42761</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="6" t="n">
         <v>42719</v>
       </c>
       <c r="H19" t="n">
@@ -6485,10 +6580,10 @@
           <t>王睿</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>43726</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="6" t="n">
         <v>40415</v>
       </c>
       <c r="H20" t="n">
@@ -6571,10 +6666,10 @@
           <t>周海栋</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>43430</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="6" t="n">
         <v>42356</v>
       </c>
       <c r="H21" t="n">
@@ -6657,10 +6752,10 @@
           <t>杨宗昌</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>43578</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="6" t="n">
         <v>42760</v>
       </c>
       <c r="H22" t="n">
@@ -6743,10 +6838,10 @@
           <t>蒋佳良</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>43405</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="6" t="n">
         <v>41779</v>
       </c>
       <c r="H23" t="n">
@@ -6829,10 +6924,10 @@
           <t>陈星</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>44023</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="6" t="n">
         <v>42459</v>
       </c>
       <c r="H24" t="n">
@@ -6915,10 +7010,10 @@
           <t>吴昊</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>43293</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="6" t="n">
         <v>42184</v>
       </c>
       <c r="H25" t="n">
@@ -7001,10 +7096,10 @@
           <t>吉莉</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>43106</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="6" t="n">
         <v>41544</v>
       </c>
       <c r="H26" t="n">
@@ -7087,10 +7182,10 @@
           <t>杨晓斌</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>43538</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="6" t="n">
         <v>42171</v>
       </c>
       <c r="H27" t="n">
@@ -7173,10 +7268,10 @@
           <t>黄珺</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>43537</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="6" t="n">
         <v>41115</v>
       </c>
       <c r="H28" t="n">
@@ -7259,10 +7354,10 @@
           <t>周海栋</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>42587</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="6" t="n">
         <v>41619</v>
       </c>
       <c r="H29" t="n">
@@ -7345,10 +7440,10 @@
           <t>梁皓</t>
         </is>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>43039</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="6" t="n">
         <v>42549</v>
       </c>
       <c r="H30" t="n">
@@ -7431,10 +7526,10 @@
           <t>王春</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>43157</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="6" t="n">
         <v>42626</v>
       </c>
       <c r="H31" t="n">
@@ -7517,10 +7612,10 @@
           <t>魏刚</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>43861</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="6" t="n">
         <v>41507</v>
       </c>
       <c r="H32" t="n">
@@ -7603,10 +7698,10 @@
           <t>蒋茜</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>43467</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="6" t="n">
         <v>42086</v>
       </c>
       <c r="H33" t="n">
@@ -7689,10 +7784,10 @@
           <t>周智硕</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>44092</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="6" t="n">
         <v>41892</v>
       </c>
       <c r="H34" t="n">
@@ -7775,10 +7870,10 @@
           <t>陈启明</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>43490</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="6" t="n">
         <v>42733</v>
       </c>
       <c r="H35" t="n">
@@ -7861,10 +7956,10 @@
           <t>薛琳</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>42678</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="6" t="n">
         <v>42157</v>
       </c>
       <c r="H36" t="n">
@@ -7947,10 +8042,10 @@
           <t>韩冰</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>42129</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="6" t="n">
         <v>40172</v>
       </c>
       <c r="H37" t="n">
@@ -8033,10 +8128,10 @@
           <t>沈楠</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>42165</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="6" t="n">
         <v>42165</v>
       </c>
       <c r="H38" t="n">
@@ -8119,10 +8214,10 @@
           <t>周诗博</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>44200</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="G39" s="6" t="n">
         <v>41019</v>
       </c>
       <c r="H39" t="n">
@@ -8205,10 +8300,10 @@
           <t>孟昊</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>43421</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="6" t="n">
         <v>41631</v>
       </c>
       <c r="H40" t="n">
@@ -8291,10 +8386,10 @@
           <t>秦毅</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>43461</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41" s="6" t="n">
         <v>42705</v>
       </c>
       <c r="H41" t="n">
@@ -8377,10 +8472,10 @@
           <t>陶灿</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>42816</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="6" t="n">
         <v>38687</v>
       </c>
       <c r="H42" t="n">
@@ -8463,10 +8558,10 @@
           <t>倪超</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>42166</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="6" t="n">
         <v>39995</v>
       </c>
       <c r="H43" t="n">
@@ -8549,10 +8644,10 @@
           <t>王筱苓</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>42222</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="6" t="n">
         <v>42222</v>
       </c>
       <c r="H44" t="n">
@@ -8635,10 +8730,10 @@
           <t>廖瀚博</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>43167</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45" s="6" t="n">
         <v>42102</v>
       </c>
       <c r="H45" t="n">
@@ -8721,10 +8816,10 @@
           <t>陈金伟</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>44202</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="6" t="n">
         <v>42241</v>
       </c>
       <c r="H46" t="n">
@@ -8807,10 +8902,10 @@
           <t>费逸</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="6" t="n">
         <v>43314</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="6" t="n">
         <v>42690</v>
       </c>
       <c r="H47" t="n">
@@ -8893,10 +8988,10 @@
           <t>单文</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="6" t="n">
         <v>42941</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="G48" s="6" t="n">
         <v>41589</v>
       </c>
       <c r="H48" t="n">
@@ -8979,10 +9074,10 @@
           <t>孙晟</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="6" t="n">
         <v>44029</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49" s="6" t="n">
         <v>42150</v>
       </c>
       <c r="H49" t="n">
@@ -9065,10 +9160,10 @@
           <t>蔡宇滨</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="6" t="n">
         <v>43487</v>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="G50" s="6" t="n">
         <v>42136</v>
       </c>
       <c r="H50" t="n">
@@ -9151,10 +9246,10 @@
           <t>梁皓</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="6" t="n">
         <v>43293</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51" s="6" t="n">
         <v>41716</v>
       </c>
       <c r="H51" t="n">
@@ -9237,10 +9332,10 @@
           <t>赵蓓</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="6" t="n">
         <v>42122</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="6" t="n">
         <v>42122</v>
       </c>
       <c r="H52" t="n">
@@ -9323,10 +9418,10 @@
           <t>肖觅</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="6" t="n">
         <v>43987</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53" s="6" t="n">
         <v>40885</v>
       </c>
       <c r="H53" t="n">
@@ -9409,10 +9504,10 @@
           <t>蔡晓</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="6" t="n">
         <v>43166</v>
       </c>
-      <c r="G54" s="5" t="n">
+      <c r="G54" s="6" t="n">
         <v>42151</v>
       </c>
       <c r="H54" t="n">
@@ -9495,10 +9590,10 @@
           <t>谭小兵</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="6" t="n">
         <v>42403</v>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="G55" s="6" t="n">
         <v>41698</v>
       </c>
       <c r="H55" t="n">
@@ -9581,10 +9676,10 @@
           <t>胡攸乔</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="6" t="n">
         <v>44168</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="6" t="n">
         <v>42149</v>
       </c>
       <c r="H56" t="n">
@@ -9667,10 +9762,10 @@
           <t>赵蓓</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="6" t="n">
         <v>41961</v>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="G57" s="6" t="n">
         <v>41961</v>
       </c>
       <c r="H57" t="n">
@@ -9742,7 +9837,7 @@
   </sheetPr>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -9869,10 +9964,10 @@
           <t>王斌</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>43404</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>41417</v>
       </c>
       <c r="H2" t="n">
@@ -9955,10 +10050,10 @@
           <t>陈保国</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>43876</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>42607</v>
       </c>
       <c r="H3" t="n">
@@ -10041,10 +10136,10 @@
           <t>吴昊</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>43293</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>42184</v>
       </c>
       <c r="H4" t="n">
@@ -10127,10 +10222,10 @@
           <t>姜锋</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>41719</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>41719</v>
       </c>
       <c r="H5" t="n">
@@ -10213,10 +10308,10 @@
           <t>王伟</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>42152</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>39906</v>
       </c>
       <c r="H6" t="n">
@@ -10299,10 +10394,10 @@
           <t>杨晓斌</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>43538</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <v>42171</v>
       </c>
       <c r="H7" t="n">
@@ -10385,10 +10480,10 @@
           <t>肖肖</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>42742</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <v>42241</v>
       </c>
       <c r="H8" t="n">
@@ -10471,10 +10566,10 @@
           <t>崔莹</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>42438</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>42438</v>
       </c>
       <c r="H9" t="n">
@@ -10557,10 +10652,10 @@
           <t>林森</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>42761</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="6" t="n">
         <v>42719</v>
       </c>
       <c r="H10" t="n">
@@ -10643,10 +10738,10 @@
           <t>张宇帆</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>42430</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="6" t="n">
         <v>42430</v>
       </c>
       <c r="H11" t="n">
@@ -10729,10 +10824,10 @@
           <t>陈鹏</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>43656</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="6" t="n">
         <v>42499</v>
       </c>
       <c r="H12" t="n">
@@ -10815,10 +10910,10 @@
           <t>梁皓</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>43039</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="6" t="n">
         <v>42549</v>
       </c>
       <c r="H13" t="n">
@@ -10901,10 +10996,10 @@
           <t>李巍</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>42398</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>42398</v>
       </c>
       <c r="H14" t="n">
@@ -10987,10 +11082,10 @@
           <t>蒋佳良</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>43405</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="6" t="n">
         <v>41779</v>
       </c>
       <c r="H15" t="n">
@@ -11073,10 +11168,10 @@
           <t>陈鹏辉</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>43677</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="6" t="n">
         <v>40976</v>
       </c>
       <c r="H16" t="n">
@@ -11159,10 +11254,10 @@
           <t>韩创</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>43832</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="6" t="n">
         <v>42150</v>
       </c>
       <c r="H17" t="n">
@@ -11245,10 +11340,10 @@
           <t>崔莹</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>42173</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>41137</v>
       </c>
       <c r="H18" t="n">
@@ -11331,10 +11426,10 @@
           <t>陶灿</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>41773</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="6" t="n">
         <v>41773</v>
       </c>
       <c r="H19" t="n">
@@ -11417,10 +11512,10 @@
           <t>何肖颉</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>42367</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="6" t="n">
         <v>42353</v>
       </c>
       <c r="H20" t="n">
@@ -11503,10 +11598,10 @@
           <t>神玉飞</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>42355</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="6" t="n">
         <v>42355</v>
       </c>
       <c r="H21" t="n">
@@ -11589,10 +11684,10 @@
           <t>张亮</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>43404</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="6" t="n">
         <v>42184</v>
       </c>
       <c r="H22" t="n">
@@ -11675,10 +11770,10 @@
           <t>杨金金</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>43957</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="6" t="n">
         <v>40534</v>
       </c>
       <c r="H23" t="n">
@@ -11761,10 +11856,10 @@
           <t>秦毅</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>43461</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="6" t="n">
         <v>42705</v>
       </c>
       <c r="H24" t="n">
@@ -11847,10 +11942,10 @@
           <t>蒋茜</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>43467</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="6" t="n">
         <v>42086</v>
       </c>
       <c r="H25" t="n">
@@ -11933,10 +12028,10 @@
           <t>梁皓</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>43293</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="6" t="n">
         <v>41716</v>
       </c>
       <c r="H26" t="n">
@@ -12019,10 +12114,10 @@
           <t>魏刚</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>43861</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="6" t="n">
         <v>41507</v>
       </c>
       <c r="H27" t="n">
@@ -12105,10 +12200,10 @@
           <t>费逸</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>43314</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="6" t="n">
         <v>42690</v>
       </c>
       <c r="H28" t="n">
@@ -12191,10 +12286,10 @@
           <t>肖觅</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>42733</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="6" t="n">
         <v>42733</v>
       </c>
       <c r="H29" t="n">
@@ -12277,10 +12372,10 @@
           <t>陈少平</t>
         </is>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>43553</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="6" t="n">
         <v>42212</v>
       </c>
       <c r="H30" t="n">
@@ -12363,10 +12458,10 @@
           <t>陈富权</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>41744</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="6" t="n">
         <v>39911</v>
       </c>
       <c r="H31" t="n">
@@ -12449,10 +12544,10 @@
           <t>陈皓</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>42047</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="6" t="n">
         <v>42047</v>
       </c>
       <c r="H32" t="n">
@@ -12535,10 +12630,10 @@
           <t>国晓雯</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>42913</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="6" t="n">
         <v>42319</v>
       </c>
       <c r="H33" t="n">
@@ -12621,10 +12716,10 @@
           <t>陈启明</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>43490</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="6" t="n">
         <v>42733</v>
       </c>
       <c r="H34" t="n">
@@ -12707,10 +12802,10 @@
           <t>周智硕</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>44092</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="6" t="n">
         <v>41871</v>
       </c>
       <c r="H35" t="n">
@@ -12793,10 +12888,10 @@
           <t>陈星</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>44023</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="6" t="n">
         <v>42459</v>
       </c>
       <c r="H36" t="n">
@@ -12879,10 +12974,10 @@
           <t>李巍</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>40806</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="6" t="n">
         <v>40806</v>
       </c>
       <c r="H37" t="n">
@@ -12965,10 +13060,10 @@
           <t>曲泉儒</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>43574</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="G38" s="6" t="n">
         <v>40973</v>
       </c>
       <c r="H38" t="n">
@@ -13051,10 +13146,10 @@
           <t>陶灿</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>42816</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="G39" s="6" t="n">
         <v>38687</v>
       </c>
       <c r="H39" t="n">
@@ -13137,10 +13232,10 @@
           <t>倪超</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>42166</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="6" t="n">
         <v>39995</v>
       </c>
       <c r="H40" t="n">
@@ -13223,10 +13318,10 @@
           <t>李彦</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>43994</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41" s="6" t="n">
         <v>41789</v>
       </c>
       <c r="H41" t="n">
@@ -13309,10 +13404,10 @@
           <t>廖瀚博</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>43167</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="6" t="n">
         <v>42102</v>
       </c>
       <c r="H42" t="n">
@@ -13395,10 +13490,10 @@
           <t>李德辉</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>43266</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="6" t="n">
         <v>42108</v>
       </c>
       <c r="H43" t="n">
@@ -13481,10 +13576,10 @@
           <t>费逸</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>42935</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="6" t="n">
         <v>39980</v>
       </c>
       <c r="H44" t="n">
@@ -13567,10 +13662,10 @@
           <t>鄢耀</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>42111</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45" s="6" t="n">
         <v>42111</v>
       </c>
       <c r="H45" t="n">
@@ -13653,10 +13748,10 @@
           <t>李德辉</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>42692</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="6" t="n">
         <v>42194</v>
       </c>
       <c r="H46" t="n">
@@ -13739,10 +13834,10 @@
           <t>田彧龙</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="6" t="n">
         <v>43599</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="6" t="n">
         <v>42598</v>
       </c>
       <c r="H47" t="n">
@@ -13825,10 +13920,10 @@
           <t>沈楠</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="6" t="n">
         <v>42165</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="G48" s="6" t="n">
         <v>42165</v>
       </c>
       <c r="H48" t="n">
@@ -13911,10 +14006,10 @@
           <t>蔡宇滨</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="6" t="n">
         <v>43487</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49" s="6" t="n">
         <v>42136</v>
       </c>
       <c r="H49" t="n">
@@ -13997,10 +14092,10 @@
           <t>周海栋</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="6" t="n">
         <v>43430</v>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="G50" s="6" t="n">
         <v>42356</v>
       </c>
       <c r="H50" t="n">
@@ -14083,10 +14178,10 @@
           <t>王磊</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="6" t="n">
         <v>42895</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51" s="6" t="n">
         <v>41773</v>
       </c>
       <c r="H51" t="n">
@@ -14169,10 +14264,10 @@
           <t>王春</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="6" t="n">
         <v>43157</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="6" t="n">
         <v>42626</v>
       </c>
       <c r="H52" t="n">
@@ -14255,10 +14350,10 @@
           <t>厉叶淼</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="6" t="n">
         <v>43936</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53" s="6" t="n">
         <v>42437</v>
       </c>
       <c r="H53" t="n">
@@ -14341,10 +14436,10 @@
           <t>韩冬燕</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="6" t="n">
         <v>42313</v>
       </c>
-      <c r="G54" s="5" t="n">
+      <c r="G54" s="6" t="n">
         <v>42237</v>
       </c>
       <c r="H54" t="n">
@@ -14427,10 +14522,10 @@
           <t>蔡晓</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="6" t="n">
         <v>43166</v>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="G55" s="6" t="n">
         <v>42151</v>
       </c>
       <c r="H55" t="n">
@@ -14513,10 +14608,10 @@
           <t>赵蓓</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="6" t="n">
         <v>42122</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="6" t="n">
         <v>42122</v>
       </c>
       <c r="H56" t="n">
@@ -14599,10 +14694,10 @@
           <t>李林益</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="6" t="n">
         <v>44119</v>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="G57" s="6" t="n">
         <v>42494</v>
       </c>
       <c r="H57" t="n">
@@ -14685,10 +14780,10 @@
           <t>曾鹏</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="6" t="n">
         <v>43272</v>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="G58" s="6" t="n">
         <v>39596</v>
       </c>
       <c r="H58" t="n">
@@ -14771,10 +14866,10 @@
           <t>胡攸乔</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="6" t="n">
         <v>44168</v>
       </c>
-      <c r="G59" s="5" t="n">
+      <c r="G59" s="6" t="n">
         <v>42149</v>
       </c>
       <c r="H59" t="n">
@@ -14857,10 +14952,10 @@
           <t>付娟</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="6" t="n">
         <v>44095</v>
       </c>
-      <c r="G60" s="5" t="n">
+      <c r="G60" s="6" t="n">
         <v>39057</v>
       </c>
       <c r="H60" t="n">
@@ -14938,10 +15033,10 @@
           <t>翁启森</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="6" t="n">
         <v>40440</v>
       </c>
-      <c r="G61" s="5" t="n">
+      <c r="G61" s="6" t="n">
         <v>40440</v>
       </c>
       <c r="H61" t="n">
